--- a/public/plugin/xls/sku.xlsx
+++ b/public/plugin/xls/sku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2E7AF-9696-4198-B076-24E13C2B4A79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F9486-C2F5-4157-8454-573A858BA4D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>PEMERINTAH KABUPATEN  BOGOR</t>
   </si>
@@ -84,16 +84,10 @@
     <t xml:space="preserve">Girimulya, </t>
   </si>
   <si>
-    <t>a/n Kepala Desa Girimulya</t>
-  </si>
-  <si>
-    <t>Sekretaris Desa</t>
-  </si>
-  <si>
-    <t>OKTOBA SYAEFUL ADAM, S.Kom.</t>
-  </si>
-  <si>
     <t xml:space="preserve">           Demikian Surat Keterangan Usaha ini  kami buat dan untuk dipergunakan sebagai mana mestinya,</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -178,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -201,6 +195,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -210,29 +231,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -619,76 +619,77 @@
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="5" width="1.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="8" width="6.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
@@ -696,10 +697,10 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,17 +710,17 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -729,11 +730,11 @@
         <v>16</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -743,11 +744,11 @@
         <v>16</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -757,11 +758,13 @@
         <v>16</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -771,11 +774,11 @@
         <v>16</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
@@ -785,11 +788,11 @@
         <v>16</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
@@ -799,24 +802,24 @@
         <v>16</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
@@ -826,11 +829,11 @@
         <v>16</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
@@ -840,83 +843,90 @@
         <v>16</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A7:J7"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B11:J11"/>
@@ -925,23 +935,10 @@
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="H15:J15"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/sku.xlsx
+++ b/public/plugin/xls/sku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F9486-C2F5-4157-8454-573A858BA4D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EA80A-E308-4004-953D-2E35B0E03B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>SURAT KETERANGAN USAHA</t>
   </si>
   <si>
-    <t>No :</t>
-  </si>
-  <si>
     <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Girimulya Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
   </si>
   <si>
@@ -81,13 +78,16 @@
     <t>:</t>
   </si>
   <si>
-    <t xml:space="preserve">Girimulya, </t>
-  </si>
-  <si>
     <t xml:space="preserve">           Demikian Surat Keterangan Usaha ini  kami buat dan untuk dipergunakan sebagai mana mestinya,</t>
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciaruteun Ilir, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No :  </t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,12 +189,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -202,36 +223,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -618,90 +609,90 @@
     <col min="2" max="2" width="1.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="5" width="1.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="1.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="3"/>
@@ -710,223 +701,210 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="20"/>
+      <c r="H27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="14"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A7:J7"/>
+  <mergeCells count="26">
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B11:J11"/>
@@ -939,6 +917,20 @@
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/sku.xlsx
+++ b/public/plugin/xls/sku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480EA80A-E308-4004-953D-2E35B0E03B23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE06FE-CE96-49EB-B014-92DC7EA90EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>KECAMATAN CIBUNGBULANG</t>
   </si>
   <si>
-    <t>DESA GIRIMULYA</t>
-  </si>
-  <si>
-    <t>Jln. Raya  H. Baimin Rt  No.2 02/01 Cibungbulang Kabupaten Bogor - 16630</t>
-  </si>
-  <si>
     <t>SURAT KETERANGAN USAHA</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">No :  </t>
+  </si>
+  <si>
+    <t>DESA CIARUTEUN ILIR</t>
+  </si>
+  <si>
+    <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
   </si>
 </sst>
 </file>
@@ -193,37 +193,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +600,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:J8"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -618,81 +618,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I9" s="3"/>
@@ -701,210 +701,224 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="14"/>
+      <c r="H27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A7:J7"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B11:J11"/>
@@ -917,20 +931,6 @@
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/sku.xlsx
+++ b/public/plugin/xls/sku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFE06FE-CE96-49EB-B014-92DC7EA90EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3E234-F8AB-4737-8FA3-EFBE1FE61297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>PEMERINTAH KABUPATEN  BOGOR</t>
   </si>
@@ -48,9 +48,6 @@
     <t>NIK</t>
   </si>
   <si>
-    <t>Tempat, Tgl Lahir</t>
-  </si>
-  <si>
     <t>Pekerjaan</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t xml:space="preserve">           Demikian Surat Keterangan Usaha ini  kami buat dan untuk dipergunakan sebagai mana mestinya,</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ciaruteun Ilir, </t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,41 +189,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -609,328 +606,315 @@
     <col min="2" max="2" width="1.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="5" width="1.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="21" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="26" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="20" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="25" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="7:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A7:I7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>

--- a/public/plugin/xls/sku.xlsx
+++ b/public/plugin/xls/sku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3E234-F8AB-4737-8FA3-EFBE1FE61297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD56C36-D51E-4387-8A20-0739BB39A207}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>SURAT KETERANGAN USAHA</t>
   </si>
   <si>
-    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Girimulya Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Yang bertanda tangan dibawah ini Kepala Desa Ciaruteun Ilir Kecamatan Cibungbulang Kabupaten Bogor menerangkan dengan sebenarnya bahwa :</t>
   </si>
 </sst>
 </file>
@@ -192,35 +192,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -614,75 +614,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
@@ -691,214 +691,203 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="21" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="21" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="26" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="26" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="14"/>
+      <c r="G28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="16"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="7:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A7:I7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="G34:I34"/>
@@ -915,6 +904,17 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
